--- a/application/test/test.xlsx
+++ b/application/test/test.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Team_24\application\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977C7EBE-8761-430B-A7B9-B8B58CEF3EC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC4FE44-A98D-495F-9F7B-6E54C8859CFD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sem 1 18-19" sheetId="12" r:id="rId1"/>
     <sheet name="sem 2 18-19" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="118">
   <si>
     <t xml:space="preserve">Semester 1 </t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>Programmable IoT devices</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -515,24 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -544,32 +529,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -609,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -675,122 +638,101 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1135,8 +1077,8 @@
   </sheetPr>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1156,36 +1098,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="L1" s="33" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="L1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="14" t="s">
@@ -1241,191 +1183,197 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>55</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="24" t="s">
         <v>55</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="27" t="s">
         <v>18</v>
       </c>
       <c r="M3" s="17">
         <v>1</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="25" t="s">
         <v>69</v>
       </c>
       <c r="P3" s="17"/>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="27" t="s">
         <v>18</v>
       </c>
       <c r="T3" s="17">
         <v>1</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="25" t="s">
         <v>32</v>
       </c>
       <c r="V3" s="19"/>
-      <c r="W3" s="23" t="s">
+      <c r="W3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="23" t="s">
+      <c r="X3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="17">
         <v>2</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="18" t="s">
         <v>61</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="17">
         <v>2</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="28"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="26"/>
       <c r="P4" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" s="28"/>
-      <c r="S4" s="24"/>
+      <c r="Q4" s="26"/>
+      <c r="S4" s="27"/>
       <c r="T4" s="17">
         <v>2</v>
       </c>
-      <c r="U4" s="28"/>
+      <c r="U4" s="26"/>
       <c r="V4" s="19"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
     </row>
     <row r="5" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="17">
         <v>3</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="24" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="17"/>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="24"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="17">
         <v>3</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="30"/>
-      <c r="S5" s="24"/>
+      <c r="O5" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="27"/>
       <c r="T5" s="17">
         <v>3</v>
       </c>
       <c r="U5" s="19"/>
-      <c r="V5" s="27" t="s">
+      <c r="V5" s="25" t="s">
         <v>33</v>
       </c>
       <c r="W5" s="19"/>
-      <c r="X5" s="23" t="s">
+      <c r="X5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="23" t="s">
+      <c r="Y5" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="17">
         <v>4</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="L6" s="27"/>
       <c r="M6" s="17">
         <v>4</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32"/>
-      <c r="S6" s="24"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="S6" s="27"/>
       <c r="T6" s="17">
         <v>4</v>
       </c>
       <c r="U6" s="19"/>
-      <c r="V6" s="28"/>
+      <c r="V6" s="26"/>
       <c r="W6" s="19"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
     </row>
     <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="17">
         <v>5</v>
       </c>
@@ -1437,17 +1385,23 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
-      <c r="L7" s="24"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="17">
         <v>5</v>
       </c>
-      <c r="N7" s="34" t="s">
+      <c r="N7" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36"/>
-      <c r="S7" s="24"/>
+      <c r="O7" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="S7" s="27"/>
       <c r="T7" s="17">
         <v>5</v>
       </c>
@@ -1455,111 +1409,113 @@
       <c r="V7" s="19"/>
       <c r="W7" s="19"/>
       <c r="X7" s="19"/>
-      <c r="Y7" s="23"/>
+      <c r="Y7" s="24"/>
     </row>
     <row r="8" spans="1:25" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
     </row>
     <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="27" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="17">
         <v>1</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="24" t="s">
         <v>65</v>
       </c>
       <c r="J9" s="17"/>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="27" t="s">
         <v>19</v>
       </c>
       <c r="M9" s="17">
         <v>1</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N9" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23" t="s">
+      <c r="O9" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="Q9" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="27" t="s">
         <v>19</v>
       </c>
       <c r="T9" s="17">
         <v>1</v>
       </c>
       <c r="U9" s="19"/>
-      <c r="V9" s="23" t="s">
+      <c r="V9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="W9" s="23" t="s">
+      <c r="W9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="X9" s="23" t="s">
+      <c r="X9" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="Y9" s="23" t="s">
+      <c r="Y9" s="24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="17">
         <v>2</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="24"/>
+      <c r="L10" s="27"/>
       <c r="M10" s="17">
         <v>2</v>
       </c>
@@ -1569,100 +1525,106 @@
       <c r="O10" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="S10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="S10" s="27"/>
       <c r="T10" s="17">
         <v>2</v>
       </c>
       <c r="U10" s="19"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="17">
         <v>3</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="D11" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="24"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="17">
         <v>3</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="P11" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Q11" s="17"/>
-      <c r="S11" s="24"/>
+      <c r="S11" s="27"/>
       <c r="T11" s="17">
         <v>3</v>
       </c>
-      <c r="U11" s="27" t="s">
+      <c r="U11" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="23" t="s">
+      <c r="V11" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23" t="s">
+      <c r="W11" s="24"/>
+      <c r="X11" s="24" t="s">
         <v>43</v>
       </c>
       <c r="Y11" s="19"/>
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="17">
         <v>4</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="17">
         <v>4</v>
       </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
       <c r="Q12" s="17"/>
-      <c r="S12" s="24"/>
+      <c r="S12" s="27"/>
       <c r="T12" s="17">
         <v>4</v>
       </c>
-      <c r="U12" s="28"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
       <c r="Y12" s="19"/>
     </row>
     <row r="13" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="17">
         <v>5</v>
       </c>
@@ -1674,7 +1636,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="L13" s="24"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="17">
         <v>5</v>
       </c>
@@ -1682,214 +1644,222 @@
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
-      <c r="S13" s="24"/>
+      <c r="S13" s="27"/>
       <c r="T13" s="17">
         <v>5</v>
       </c>
       <c r="U13" s="19"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
     </row>
     <row r="14" spans="1:25" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17">
         <v>1</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="24" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="24" t="s">
         <v>63</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="27" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="17">
         <v>1</v>
       </c>
       <c r="N15" s="17"/>
-      <c r="O15" s="27" t="s">
+      <c r="O15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="25" t="s">
+      <c r="P15" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="S15" s="24" t="s">
+      <c r="S15" s="27" t="s">
         <v>20</v>
       </c>
       <c r="T15" s="17">
         <v>1</v>
       </c>
-      <c r="U15" s="23" t="s">
+      <c r="U15" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
+      <c r="V15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="W15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="X15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y15" s="25" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="17">
         <v>2</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="L16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="17">
         <v>2</v>
       </c>
       <c r="N16" s="17"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="28"/>
-      <c r="S16" s="24"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="26"/>
+      <c r="S16" s="27"/>
       <c r="T16" s="17">
         <v>2</v>
       </c>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
     </row>
     <row r="17" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="17">
         <v>3</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="24" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="17"/>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="24" t="s">
         <v>59</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
-      <c r="L17" s="24"/>
+      <c r="L17" s="27"/>
       <c r="M17" s="17">
         <v>3</v>
       </c>
-      <c r="N17" s="27" t="s">
+      <c r="N17" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="O17" s="27" t="s">
+      <c r="O17" s="25" t="s">
         <v>78</v>
       </c>
       <c r="P17" s="17"/>
-      <c r="Q17" s="27" t="s">
+      <c r="Q17" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="S17" s="24"/>
+      <c r="S17" s="27"/>
       <c r="T17" s="17">
         <v>3</v>
       </c>
-      <c r="U17" s="23" t="s">
+      <c r="U17" s="24" t="s">
         <v>40</v>
       </c>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
-      <c r="X17" s="23" t="s">
+      <c r="X17" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="23" t="s">
+      <c r="Y17" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="17">
         <v>4</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
-      <c r="L18" s="24"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="17">
         <v>4</v>
       </c>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
       <c r="P18" s="17"/>
-      <c r="Q18" s="28"/>
-      <c r="S18" s="24"/>
+      <c r="Q18" s="26"/>
+      <c r="S18" s="27"/>
       <c r="T18" s="17">
         <v>4</v>
       </c>
-      <c r="U18" s="23"/>
+      <c r="U18" s="24"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
     </row>
     <row r="19" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="17">
         <v>5</v>
       </c>
@@ -1901,7 +1871,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
-      <c r="L19" s="24"/>
+      <c r="L19" s="27"/>
       <c r="M19" s="17">
         <v>5</v>
       </c>
@@ -1909,208 +1879,224 @@
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
-      <c r="S19" s="24"/>
+      <c r="S19" s="27"/>
       <c r="T19" s="17">
         <v>5</v>
       </c>
-      <c r="U19" s="23"/>
+      <c r="U19" s="24"/>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
       <c r="Y19" s="19"/>
     </row>
     <row r="20" spans="1:25" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
     </row>
     <row r="21" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="17">
         <v>1</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="24" t="s">
         <v>63</v>
       </c>
       <c r="J21" s="17"/>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="27" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="17">
         <v>1</v>
       </c>
-      <c r="N21" s="27" t="s">
+      <c r="N21" s="25" t="s">
         <v>68</v>
       </c>
       <c r="O21" s="17"/>
-      <c r="P21" s="27" t="s">
+      <c r="P21" s="25" t="s">
         <v>70</v>
       </c>
       <c r="Q21" s="17"/>
-      <c r="S21" s="24" t="s">
+      <c r="S21" s="27" t="s">
         <v>21</v>
       </c>
       <c r="T21" s="17">
         <v>1</v>
       </c>
-      <c r="U21" s="23" t="s">
+      <c r="U21" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
+      <c r="V21" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="W21" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="X21" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y21" s="25" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="17">
         <v>2</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="17"/>
-      <c r="L22" s="24"/>
+      <c r="L22" s="27"/>
       <c r="M22" s="17">
         <v>2</v>
       </c>
-      <c r="N22" s="28"/>
+      <c r="N22" s="26"/>
       <c r="O22" s="17"/>
-      <c r="P22" s="28"/>
+      <c r="P22" s="26"/>
       <c r="Q22" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="S22" s="24"/>
+      <c r="S22" s="27"/>
       <c r="T22" s="17">
         <v>2</v>
       </c>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
     </row>
     <row r="23" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="17">
         <v>3</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="24" t="s">
         <v>65</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="24"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="17">
         <v>3</v>
       </c>
       <c r="N23" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="O23" s="25" t="s">
+      <c r="O23" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="P23" s="27" t="s">
+      <c r="P23" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="27" t="s">
+      <c r="Q23" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="S23" s="24"/>
+      <c r="S23" s="27"/>
       <c r="T23" s="17">
         <v>3</v>
       </c>
-      <c r="U23" s="39" t="s">
+      <c r="U23" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
+      <c r="V23" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="W23" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="X23" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y23" s="50" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="24" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="17">
         <v>4</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="23"/>
-      <c r="L24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="L24" s="27"/>
       <c r="M24" s="17">
         <v>4</v>
       </c>
       <c r="N24" s="17"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="S24" s="24"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="S24" s="27"/>
       <c r="T24" s="17">
         <v>4</v>
       </c>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
     </row>
     <row r="25" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="17">
         <v>5</v>
       </c>
@@ -2122,7 +2108,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
-      <c r="L25" s="24"/>
+      <c r="L25" s="27"/>
       <c r="M25" s="17">
         <v>5</v>
       </c>
@@ -2132,35 +2118,35 @@
       </c>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
-      <c r="S25" s="24"/>
+      <c r="S25" s="27"/>
       <c r="T25" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
     </row>
     <row r="27" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="17">
@@ -2170,58 +2156,58 @@
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="L27" s="24" t="s">
+      <c r="L27" s="27" t="s">
         <v>22</v>
       </c>
       <c r="M27" s="17">
         <v>1</v>
       </c>
-      <c r="N27" s="27" t="s">
+      <c r="N27" s="25" t="s">
         <v>79</v>
       </c>
       <c r="O27" s="17"/>
-      <c r="P27" s="27" t="s">
+      <c r="P27" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="Q27" s="27" t="s">
+      <c r="Q27" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="S27" s="24" t="s">
+      <c r="S27" s="27" t="s">
         <v>22</v>
       </c>
       <c r="T27" s="17">
         <v>1</v>
       </c>
-      <c r="U27" s="23" t="s">
+      <c r="U27" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="V27" s="23" t="s">
+      <c r="V27" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="W27" s="23" t="s">
+      <c r="W27" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="X27" s="23" t="s">
+      <c r="X27" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="Y27" s="23" t="s">
+      <c r="Y27" s="24" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="17">
         <v>2</v>
       </c>
@@ -2231,59 +2217,65 @@
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="28"/>
-      <c r="L28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="26"/>
+      <c r="L28" s="27"/>
       <c r="M28" s="17">
         <v>2</v>
       </c>
-      <c r="N28" s="28"/>
+      <c r="N28" s="26"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="S28" s="24"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="S28" s="27"/>
       <c r="T28" s="17">
         <v>2</v>
       </c>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
     </row>
     <row r="29" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="17">
         <v>3</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="L29" s="24"/>
+      <c r="H29" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="27"/>
       <c r="M29" s="17">
         <v>3</v>
       </c>
-      <c r="N29" s="27" t="s">
+      <c r="N29" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="O29" s="27" t="s">
+      <c r="O29" s="25" t="s">
         <v>68</v>
       </c>
       <c r="P29" s="18" t="s">
@@ -2292,53 +2284,63 @@
       <c r="Q29" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="S29" s="24"/>
+      <c r="S29" s="27"/>
       <c r="T29" s="17">
         <v>3</v>
       </c>
-      <c r="U29" s="25" t="s">
+      <c r="U29" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="30"/>
+      <c r="V29" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="W29" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="X29" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y29" s="28" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="17">
         <v>4</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="L30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="L30" s="27"/>
       <c r="M30" s="17">
         <v>4</v>
       </c>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="23" t="s">
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="23"/>
-      <c r="S30" s="24"/>
+      <c r="Q30" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="S30" s="27"/>
       <c r="T30" s="17">
         <v>4</v>
       </c>
-      <c r="U30" s="26"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="32"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
     </row>
     <row r="31" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="17">
         <v>5</v>
       </c>
@@ -2350,7 +2352,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
-      <c r="L31" s="24"/>
+      <c r="L31" s="27"/>
       <c r="M31" s="17">
         <v>5</v>
       </c>
@@ -2358,7 +2360,7 @@
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
-      <c r="S31" s="24"/>
+      <c r="S31" s="27"/>
       <c r="T31" s="17">
         <v>5</v>
       </c>
@@ -2371,22 +2373,22 @@
     <row r="32" spans="1:25" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="21"/>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40" t="s">
+      <c r="D32" s="23"/>
+      <c r="E32" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40" t="s">
+      <c r="F32" s="23"/>
+      <c r="G32" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40" t="s">
+      <c r="H32" s="23"/>
+      <c r="I32" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="J32" s="40"/>
+      <c r="J32" s="23"/>
       <c r="K32" s="21"/>
       <c r="L32" s="20"/>
       <c r="M32" s="21"/>
@@ -2400,57 +2402,77 @@
     </row>
     <row r="33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="130">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:J30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="S27:S31"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="U29:Y30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A26:T26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="U21:Y22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="U23:Y24"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="S21:S25"/>
+  <mergeCells count="152">
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S7"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="I11:I12"/>
     <mergeCell ref="A14:T14"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="C15:C16"/>
@@ -2458,7 +2480,6 @@
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="H15:H16"/>
-    <mergeCell ref="U15:Y16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="H17:H18"/>
@@ -2475,62 +2496,65 @@
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="S15:S19"/>
     <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="C11:F12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="N5:Q6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S7"/>
-    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="S21:S25"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="A26:T26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="S27:S31"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
   </mergeCells>
   <pageMargins left="0.28999999999999998" right="0.18" top="0.19" bottom="0.34" header="0.17" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToWidth="0" orientation="landscape" r:id="rId1"/>
@@ -2545,8 +2569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2563,26 +2587,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
@@ -2622,123 +2646,133 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="33" t="s">
         <v>87</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="45" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="11">
         <v>1</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="46" t="s">
+      <c r="M3" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="P3" s="33" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="J4" s="42"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="11">
         <v>2</v>
       </c>
-      <c r="L4" s="52"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="46"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="33"/>
     </row>
     <row r="5" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="11">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="34" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="33" t="s">
         <v>90</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="42"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="11">
         <v>3</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="51"/>
+      <c r="M5" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="11">
         <v>4</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="48"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="46"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="12"/>
       <c r="H6" s="2"/>
-      <c r="J6" s="42"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="11">
         <v>4</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="54"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
     </row>
     <row r="7" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="11">
         <v>5</v>
       </c>
@@ -2748,7 +2782,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="12"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="42"/>
+      <c r="J7" s="45"/>
       <c r="K7" s="11">
         <v>5</v>
       </c>
@@ -2759,31 +2793,31 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="45"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="44"/>
     </row>
     <row r="9" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -2792,118 +2826,134 @@
       <c r="E9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="45" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="11">
         <v>1</v>
       </c>
       <c r="L9" s="12"/>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="N9" s="55"/>
-      <c r="O9" s="46" t="s">
+      <c r="N9" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="P9" s="46"/>
+      <c r="P9" s="52" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="10" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="11">
         <v>2</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="13" t="s">
         <v>88</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="J10" s="42"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="J10" s="45"/>
       <c r="K10" s="11">
         <v>2</v>
       </c>
-      <c r="L10" s="56" t="s">
+      <c r="L10" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="M10" s="56"/>
+      <c r="M10" s="53" t="s">
+        <v>104</v>
+      </c>
       <c r="N10" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="O10" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="P10" s="55"/>
+      <c r="P10" s="54" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="11">
         <v>3</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
+      <c r="D11" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>57</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="12"/>
       <c r="H11" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="42"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="11">
         <v>3</v>
       </c>
-      <c r="L11" s="56" t="s">
+      <c r="L11" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="M11" s="56"/>
+      <c r="M11" s="53" t="s">
+        <v>105</v>
+      </c>
       <c r="N11" s="12"/>
-      <c r="O11" s="46" t="s">
+      <c r="O11" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="46" t="s">
+      <c r="P11" s="33" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="11">
         <v>4</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="2"/>
       <c r="G12" s="12"/>
       <c r="H12" s="2"/>
-      <c r="J12" s="42"/>
+      <c r="J12" s="45"/>
       <c r="K12" s="11">
         <v>4</v>
       </c>
-      <c r="L12" s="55" t="s">
+      <c r="L12" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="M12" s="55"/>
+      <c r="M12" s="54" t="s">
+        <v>106</v>
+      </c>
       <c r="N12" s="12"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
     </row>
     <row r="13" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="11">
         <v>5</v>
       </c>
@@ -2913,7 +2963,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="42"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="11">
         <v>5</v>
       </c>
@@ -2924,25 +2974,25 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" s="9" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="45"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="44"/>
     </row>
     <row r="15" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="45" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="11">
@@ -2951,21 +3001,21 @@
       <c r="C15" s="2"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G15" s="12"/>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="45" t="s">
         <v>20</v>
       </c>
       <c r="K15" s="11">
         <v>1</v>
       </c>
       <c r="L15" s="12"/>
-      <c r="M15" s="47" t="s">
+      <c r="M15" s="34" t="s">
         <v>97</v>
       </c>
       <c r="N15" s="12"/>
@@ -2973,90 +3023,92 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="11">
         <v>2</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="48"/>
-      <c r="J16" s="42"/>
+      <c r="H16" s="35"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="11">
         <v>2</v>
       </c>
       <c r="L16" s="12"/>
-      <c r="M16" s="48"/>
+      <c r="M16" s="35"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
     <row r="17" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="11">
         <v>3</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="46" t="s">
+      <c r="E17" s="35"/>
+      <c r="F17" s="33" t="s">
         <v>86</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>88</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="J17" s="42"/>
+      <c r="J17" s="45"/>
       <c r="K17" s="11">
         <v>3</v>
       </c>
-      <c r="L17" s="57" t="s">
+      <c r="L17" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="M17" s="57" t="s">
+      <c r="M17" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="N17" s="46" t="s">
+      <c r="N17" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="O17" s="46" t="s">
+      <c r="O17" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="46"/>
+      <c r="P17" s="34" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="18" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="11">
         <v>4</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="48"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47" t="s">
+      <c r="F18" s="33"/>
+      <c r="G18" s="34" t="s">
         <v>85</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="J18" s="42"/>
+      <c r="J18" s="45"/>
       <c r="K18" s="11">
         <v>4</v>
       </c>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
     </row>
     <row r="19" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="11">
         <v>5</v>
       </c>
@@ -3064,9 +3116,9 @@
       <c r="D19" s="2"/>
       <c r="E19" s="12"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="48"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="2"/>
-      <c r="J19" s="42"/>
+      <c r="J19" s="45"/>
       <c r="K19" s="11">
         <v>5</v>
       </c>
@@ -3077,147 +3129,149 @@
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" s="9" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="45"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="44"/>
     </row>
     <row r="21" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="45" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="11">
         <v>1</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="33" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="45" t="s">
         <v>21</v>
       </c>
       <c r="K21" s="11">
         <v>1</v>
       </c>
-      <c r="L21" s="46" t="s">
+      <c r="L21" s="33" t="s">
         <v>101</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="46" t="s">
+      <c r="O21" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="P21" s="46" t="s">
+      <c r="P21" s="33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="11">
         <v>2</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="13" t="s">
         <v>89</v>
       </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="48"/>
-      <c r="J22" s="42"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="35"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="11">
         <v>2</v>
       </c>
-      <c r="L22" s="46"/>
+      <c r="L22" s="33"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="46" t="s">
+      <c r="N22" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
     </row>
     <row r="23" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="11">
         <v>3</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="46" t="s">
+      <c r="H23" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="42"/>
+      <c r="J23" s="45"/>
       <c r="K23" s="11">
         <v>3</v>
       </c>
-      <c r="L23" s="46" t="s">
+      <c r="L23" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46" t="s">
+      <c r="M23" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="P23" s="46" t="s">
+      <c r="P23" s="33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="11">
         <v>4</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="J24" s="42"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="J24" s="45"/>
       <c r="K24" s="11">
         <v>4</v>
       </c>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46" t="s">
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
     </row>
     <row r="25" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="11">
         <v>5</v>
       </c>
@@ -3227,158 +3281,164 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="J25" s="42"/>
+      <c r="J25" s="45"/>
       <c r="K25" s="11">
         <v>5</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="46"/>
+      <c r="N25" s="33"/>
       <c r="O25" s="2"/>
       <c r="P25" s="12"/>
     </row>
     <row r="26" spans="1:16" s="9" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="45"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="44"/>
     </row>
     <row r="27" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="11">
         <v>1</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="33" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="46" t="s">
+      <c r="H27" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="42" t="s">
+      <c r="J27" s="45" t="s">
         <v>22</v>
       </c>
       <c r="K27" s="11">
         <v>1</v>
       </c>
-      <c r="L27" s="49" t="s">
+      <c r="L27" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="M27" s="50"/>
-      <c r="N27" s="47" t="s">
+      <c r="M27" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="N27" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="O27" s="46" t="s">
+      <c r="O27" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="P27" s="46" t="s">
+      <c r="P27" s="33" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="11">
         <v>2</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="46"/>
-      <c r="J28" s="42"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="33"/>
+      <c r="J28" s="45"/>
       <c r="K28" s="11">
         <v>2</v>
       </c>
-      <c r="L28" s="52"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
     </row>
     <row r="29" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="11">
         <v>3</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="50"/>
-      <c r="H29" s="51"/>
-      <c r="J29" s="42"/>
+      <c r="G29" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="45"/>
       <c r="K29" s="11">
         <v>3</v>
       </c>
-      <c r="L29" s="47" t="s">
+      <c r="L29" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="M29" s="47" t="s">
+      <c r="M29" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="N29" s="47" t="s">
+      <c r="N29" s="34" t="s">
         <v>115</v>
       </c>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
     </row>
     <row r="30" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="11">
         <v>4</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="54"/>
-      <c r="J30" s="42"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="J30" s="45"/>
       <c r="K30" s="11">
         <v>4</v>
       </c>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
     </row>
     <row r="31" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="11">
         <v>5</v>
       </c>
@@ -3388,7 +3448,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="J31" s="42"/>
+      <c r="J31" s="45"/>
       <c r="K31" s="11">
         <v>5</v>
       </c>
@@ -3399,26 +3459,91 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="28.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61" t="s">
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O9:P9"/>
+  <mergeCells count="92">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="J15:J19"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="J9:J13"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="F32:H32"/>
@@ -3434,70 +3559,11 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="J15:J19"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="F29:H30"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="L23:M24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="O17:P18"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="L5:P6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N27:N28"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.18" top="0.38" bottom="0.46" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>

--- a/application/test/test.xlsx
+++ b/application/test/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Team_24\application\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC4FE44-A98D-495F-9F7B-6E54C8859CFD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC33295-9854-492A-B2EC-698D2200B015}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="117">
   <si>
     <t xml:space="preserve">Semester 1 </t>
   </si>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>Programmable IoT devices</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
 </sst>
 </file>
@@ -638,49 +635,88 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -694,45 +730,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,36 +1095,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="L1" s="32" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="L1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="14" t="s">
@@ -1183,197 +1180,197 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="33" t="s">
         <v>55</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="33" t="s">
         <v>55</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="32" t="s">
         <v>18</v>
       </c>
       <c r="M3" s="17">
         <v>1</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="28" t="s">
         <v>69</v>
       </c>
       <c r="P3" s="17"/>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="S3" s="32" t="s">
         <v>18</v>
       </c>
       <c r="T3" s="17">
         <v>1</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="28" t="s">
         <v>32</v>
       </c>
       <c r="V3" s="19"/>
-      <c r="W3" s="24" t="s">
+      <c r="W3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="24" t="s">
+      <c r="X3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="24" t="s">
+      <c r="Y3" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="17">
         <v>2</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="18" t="s">
         <v>61</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="L4" s="27"/>
+      <c r="J4" s="33"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="17">
         <v>2</v>
       </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="26"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="29"/>
       <c r="P4" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="S4" s="27"/>
+      <c r="Q4" s="29"/>
+      <c r="S4" s="32"/>
       <c r="T4" s="17">
         <v>2</v>
       </c>
-      <c r="U4" s="26"/>
+      <c r="U4" s="29"/>
       <c r="V4" s="19"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
     </row>
     <row r="5" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="17">
         <v>3</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="33" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="17"/>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="27"/>
+      <c r="L5" s="32"/>
       <c r="M5" s="17">
         <v>3</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="O5" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="Q5" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="S5" s="27"/>
+      <c r="S5" s="32"/>
       <c r="T5" s="17">
         <v>3</v>
       </c>
       <c r="U5" s="19"/>
-      <c r="V5" s="25" t="s">
+      <c r="V5" s="28" t="s">
         <v>33</v>
       </c>
       <c r="W5" s="19"/>
-      <c r="X5" s="24" t="s">
+      <c r="X5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="24" t="s">
+      <c r="Y5" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="17">
         <v>4</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="L6" s="27"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="L6" s="32"/>
       <c r="M6" s="17">
         <v>4</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="S6" s="27"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="S6" s="32"/>
       <c r="T6" s="17">
         <v>4</v>
       </c>
       <c r="U6" s="19"/>
-      <c r="V6" s="26"/>
+      <c r="V6" s="29"/>
       <c r="W6" s="19"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
     </row>
     <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="17">
         <v>5</v>
       </c>
@@ -1385,23 +1382,23 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="32"/>
       <c r="M7" s="17">
         <v>5</v>
       </c>
-      <c r="N7" s="49" t="s">
+      <c r="N7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="P7" s="49" t="s">
+      <c r="P7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="Q7" s="49" t="s">
+      <c r="Q7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="27"/>
+      <c r="S7" s="32"/>
       <c r="T7" s="17">
         <v>5</v>
       </c>
@@ -1409,113 +1406,113 @@
       <c r="V7" s="19"/>
       <c r="W7" s="19"/>
       <c r="X7" s="19"/>
-      <c r="Y7" s="24"/>
+      <c r="Y7" s="33"/>
     </row>
     <row r="8" spans="1:25" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
     </row>
     <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="32" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="17">
         <v>1</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="33" t="s">
         <v>65</v>
       </c>
       <c r="J9" s="17"/>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M9" s="17">
         <v>1</v>
       </c>
-      <c r="N9" s="48" t="s">
+      <c r="N9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="48" t="s">
+      <c r="O9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="S9" s="27" t="s">
+      <c r="S9" s="32" t="s">
         <v>19</v>
       </c>
       <c r="T9" s="17">
         <v>1</v>
       </c>
       <c r="U9" s="19"/>
-      <c r="V9" s="24" t="s">
+      <c r="V9" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="W9" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="X9" s="24" t="s">
+      <c r="X9" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="Y9" s="24" t="s">
+      <c r="Y9" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="17">
         <v>2</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="27"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="17">
         <v>2</v>
       </c>
@@ -1525,106 +1522,106 @@
       <c r="O10" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="S10" s="27"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="S10" s="32"/>
       <c r="T10" s="17">
         <v>2</v>
       </c>
       <c r="U10" s="19"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="17">
         <v>3</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="28" t="s">
         <v>57</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="27"/>
+      <c r="L11" s="32"/>
       <c r="M11" s="17">
         <v>3</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="24" t="s">
+      <c r="P11" s="33" t="s">
         <v>78</v>
       </c>
       <c r="Q11" s="17"/>
-      <c r="S11" s="27"/>
+      <c r="S11" s="32"/>
       <c r="T11" s="17">
         <v>3</v>
       </c>
-      <c r="U11" s="25" t="s">
+      <c r="U11" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="24" t="s">
+      <c r="V11" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24" t="s">
+      <c r="W11" s="33"/>
+      <c r="X11" s="33" t="s">
         <v>43</v>
       </c>
       <c r="Y11" s="19"/>
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="17">
         <v>4</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="L12" s="27"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="17">
         <v>4</v>
       </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
       <c r="Q12" s="17"/>
-      <c r="S12" s="27"/>
+      <c r="S12" s="32"/>
       <c r="T12" s="17">
         <v>4</v>
       </c>
-      <c r="U12" s="26"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
       <c r="Y12" s="19"/>
     </row>
     <row r="13" spans="1:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="17">
         <v>5</v>
       </c>
@@ -1636,7 +1633,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="L13" s="27"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="17">
         <v>5</v>
       </c>
@@ -1644,222 +1641,222 @@
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
-      <c r="S13" s="27"/>
+      <c r="S13" s="32"/>
       <c r="T13" s="17">
         <v>5</v>
       </c>
       <c r="U13" s="19"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
     </row>
     <row r="14" spans="1:25" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
     </row>
     <row r="15" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="17">
         <v>1</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="33" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="33" t="s">
         <v>63</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="L15" s="32" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="17">
         <v>1</v>
       </c>
       <c r="N15" s="17"/>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="28" t="s">
+      <c r="P15" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="Q15" s="25" t="s">
+      <c r="Q15" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="S15" s="27" t="s">
+      <c r="S15" s="32" t="s">
         <v>20</v>
       </c>
       <c r="T15" s="17">
         <v>1</v>
       </c>
-      <c r="U15" s="25" t="s">
+      <c r="U15" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="V15" s="25" t="s">
+      <c r="V15" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="W15" s="25" t="s">
+      <c r="W15" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="X15" s="25" t="s">
+      <c r="X15" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="Y15" s="25" t="s">
+      <c r="Y15" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="17">
         <v>2</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="24"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="L16" s="27"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="L16" s="32"/>
       <c r="M16" s="17">
         <v>2</v>
       </c>
       <c r="N16" s="17"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="26"/>
-      <c r="S16" s="27"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="29"/>
+      <c r="S16" s="32"/>
       <c r="T16" s="17">
         <v>2</v>
       </c>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
     </row>
     <row r="17" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="17">
         <v>3</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="33" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="17"/>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="33" t="s">
         <v>59</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
-      <c r="L17" s="27"/>
+      <c r="L17" s="32"/>
       <c r="M17" s="17">
         <v>3</v>
       </c>
-      <c r="N17" s="25" t="s">
+      <c r="N17" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="O17" s="28" t="s">
         <v>78</v>
       </c>
       <c r="P17" s="17"/>
-      <c r="Q17" s="25" t="s">
+      <c r="Q17" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="S17" s="27"/>
+      <c r="S17" s="32"/>
       <c r="T17" s="17">
         <v>3</v>
       </c>
-      <c r="U17" s="24" t="s">
+      <c r="U17" s="33" t="s">
         <v>40</v>
       </c>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
-      <c r="X17" s="24" t="s">
+      <c r="X17" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="24" t="s">
+      <c r="Y17" s="33" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="17">
         <v>4</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="32"/>
       <c r="M18" s="17">
         <v>4</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
       <c r="P18" s="17"/>
-      <c r="Q18" s="26"/>
-      <c r="S18" s="27"/>
+      <c r="Q18" s="29"/>
+      <c r="S18" s="32"/>
       <c r="T18" s="17">
         <v>4</v>
       </c>
-      <c r="U18" s="24"/>
+      <c r="U18" s="33"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
     </row>
     <row r="19" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="17">
         <v>5</v>
       </c>
@@ -1871,7 +1868,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="32"/>
       <c r="M19" s="17">
         <v>5</v>
       </c>
@@ -1879,224 +1876,224 @@
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
-      <c r="S19" s="27"/>
+      <c r="S19" s="32"/>
       <c r="T19" s="17">
         <v>5</v>
       </c>
-      <c r="U19" s="24"/>
+      <c r="U19" s="33"/>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
       <c r="Y19" s="19"/>
     </row>
     <row r="20" spans="1:25" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
     </row>
     <row r="21" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="17">
         <v>1</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="30" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="33" t="s">
         <v>63</v>
       </c>
       <c r="J21" s="17"/>
-      <c r="L21" s="27" t="s">
+      <c r="L21" s="32" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="17">
         <v>1</v>
       </c>
-      <c r="N21" s="25" t="s">
+      <c r="N21" s="28" t="s">
         <v>68</v>
       </c>
       <c r="O21" s="17"/>
-      <c r="P21" s="25" t="s">
+      <c r="P21" s="28" t="s">
         <v>70</v>
       </c>
       <c r="Q21" s="17"/>
-      <c r="S21" s="27" t="s">
+      <c r="S21" s="32" t="s">
         <v>21</v>
       </c>
       <c r="T21" s="17">
         <v>1</v>
       </c>
-      <c r="U21" s="25" t="s">
+      <c r="U21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="V21" s="25" t="s">
+      <c r="V21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="W21" s="25" t="s">
+      <c r="W21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="X21" s="25" t="s">
+      <c r="X21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="Y21" s="25" t="s">
+      <c r="Y21" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="17">
         <v>2</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
       <c r="J22" s="17"/>
-      <c r="L22" s="27"/>
+      <c r="L22" s="32"/>
       <c r="M22" s="17">
         <v>2</v>
       </c>
-      <c r="N22" s="26"/>
+      <c r="N22" s="29"/>
       <c r="O22" s="17"/>
-      <c r="P22" s="26"/>
+      <c r="P22" s="29"/>
       <c r="Q22" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="S22" s="27"/>
+      <c r="S22" s="32"/>
       <c r="T22" s="17">
         <v>2</v>
       </c>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
     </row>
     <row r="23" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="17">
         <v>3</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="33" t="s">
         <v>65</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="27"/>
+      <c r="L23" s="32"/>
       <c r="M23" s="17">
         <v>3</v>
       </c>
       <c r="N23" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="O23" s="28" t="s">
+      <c r="O23" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="P23" s="25" t="s">
+      <c r="P23" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="25" t="s">
+      <c r="Q23" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="S23" s="27"/>
+      <c r="S23" s="32"/>
       <c r="T23" s="17">
         <v>3</v>
       </c>
-      <c r="U23" s="50" t="s">
+      <c r="U23" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="V23" s="50" t="s">
+      <c r="V23" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="W23" s="50" t="s">
+      <c r="W23" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="X23" s="50" t="s">
+      <c r="X23" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="Y23" s="50" t="s">
+      <c r="Y23" s="37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="17">
         <v>4</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="24"/>
-      <c r="L24" s="27"/>
+      <c r="J24" s="33"/>
+      <c r="L24" s="32"/>
       <c r="M24" s="17">
         <v>4</v>
       </c>
       <c r="N24" s="17"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="S24" s="27"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="S24" s="32"/>
       <c r="T24" s="17">
         <v>4</v>
       </c>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
     </row>
     <row r="25" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="17">
         <v>5</v>
       </c>
@@ -2108,7 +2105,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
-      <c r="L25" s="27"/>
+      <c r="L25" s="32"/>
       <c r="M25" s="17">
         <v>5</v>
       </c>
@@ -2118,35 +2115,35 @@
       </c>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
-      <c r="S25" s="27"/>
+      <c r="S25" s="32"/>
       <c r="T25" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
     </row>
     <row r="27" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="32" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="17">
@@ -2156,58 +2153,58 @@
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="J27" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="32" t="s">
         <v>22</v>
       </c>
       <c r="M27" s="17">
         <v>1</v>
       </c>
-      <c r="N27" s="25" t="s">
+      <c r="N27" s="28" t="s">
         <v>79</v>
       </c>
       <c r="O27" s="17"/>
-      <c r="P27" s="25" t="s">
+      <c r="P27" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="Q27" s="25" t="s">
+      <c r="Q27" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="S27" s="27" t="s">
+      <c r="S27" s="32" t="s">
         <v>22</v>
       </c>
       <c r="T27" s="17">
         <v>1</v>
       </c>
-      <c r="U27" s="24" t="s">
+      <c r="U27" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="V27" s="24" t="s">
+      <c r="V27" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="W27" s="24" t="s">
+      <c r="W27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="X27" s="24" t="s">
+      <c r="X27" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="Y27" s="24" t="s">
+      <c r="Y27" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="17">
         <v>2</v>
       </c>
@@ -2217,65 +2214,65 @@
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="26"/>
-      <c r="L28" s="27"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="29"/>
+      <c r="L28" s="32"/>
       <c r="M28" s="17">
         <v>2</v>
       </c>
-      <c r="N28" s="26"/>
+      <c r="N28" s="29"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="S28" s="27"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="S28" s="32"/>
       <c r="T28" s="17">
         <v>2</v>
       </c>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
     </row>
     <row r="29" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="17">
         <v>3</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="L29" s="27"/>
+      <c r="L29" s="32"/>
       <c r="M29" s="17">
         <v>3</v>
       </c>
-      <c r="N29" s="25" t="s">
+      <c r="N29" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="O29" s="25" t="s">
+      <c r="O29" s="28" t="s">
         <v>68</v>
       </c>
       <c r="P29" s="18" t="s">
@@ -2284,63 +2281,63 @@
       <c r="Q29" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="S29" s="27"/>
+      <c r="S29" s="32"/>
       <c r="T29" s="17">
         <v>3</v>
       </c>
-      <c r="U29" s="28" t="s">
+      <c r="U29" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="V29" s="28" t="s">
+      <c r="V29" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="W29" s="28" t="s">
+      <c r="W29" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="X29" s="28" t="s">
+      <c r="X29" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="Y29" s="28" t="s">
+      <c r="Y29" s="30" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="17">
         <v>4</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="L30" s="27"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="L30" s="32"/>
       <c r="M30" s="17">
         <v>4</v>
       </c>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="48" t="s">
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="48" t="s">
+      <c r="Q30" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="S30" s="27"/>
+      <c r="S30" s="32"/>
       <c r="T30" s="17">
         <v>4</v>
       </c>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
     </row>
     <row r="31" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="17">
         <v>5</v>
       </c>
@@ -2352,7 +2349,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
-      <c r="L31" s="27"/>
+      <c r="L31" s="32"/>
       <c r="M31" s="17">
         <v>5</v>
       </c>
@@ -2360,7 +2357,7 @@
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
-      <c r="S31" s="27"/>
+      <c r="S31" s="32"/>
       <c r="T31" s="17">
         <v>5</v>
       </c>
@@ -2373,22 +2370,22 @@
     <row r="32" spans="1:25" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="21"/>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23" t="s">
+      <c r="D32" s="39"/>
+      <c r="E32" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23" t="s">
+      <c r="F32" s="39"/>
+      <c r="G32" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23" t="s">
+      <c r="H32" s="39"/>
+      <c r="I32" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="J32" s="23"/>
+      <c r="J32" s="39"/>
       <c r="K32" s="21"/>
       <c r="L32" s="20"/>
       <c r="M32" s="21"/>
@@ -2403,29 +2400,103 @@
     <row r="33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S7"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="S27:S31"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="A26:T26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="S21:S25"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="S15:S19"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="I11:I12"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="Y5:Y7"/>
@@ -2448,6 +2519,19 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L3:L7"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S7"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="A8:T8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="C9:C10"/>
@@ -2455,106 +2539,19 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y22"/>
     <mergeCell ref="U17:U19"/>
     <mergeCell ref="X17:X18"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="S15:S19"/>
     <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="S21:S25"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="A26:T26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="S27:S31"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y29:Y30"/>
   </mergeCells>
   <pageMargins left="0.28999999999999998" right="0.18" top="0.19" bottom="0.34" header="0.17" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToWidth="0" orientation="landscape" r:id="rId1"/>
@@ -2587,26 +2584,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
@@ -2652,20 +2649,20 @@
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="49" t="s">
         <v>87</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="42" t="s">
         <v>86</v>
       </c>
       <c r="J3" s="45" t="s">
@@ -2674,19 +2671,19 @@
       <c r="K3" s="11">
         <v>1</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="49" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2695,23 +2692,23 @@
       <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
       <c r="J4" s="45"/>
       <c r="K4" s="11">
         <v>2</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="33"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="49"/>
     </row>
     <row r="5" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
@@ -2721,11 +2718,11 @@
       <c r="C5" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="42" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="49" t="s">
         <v>90</v>
       </c>
       <c r="G5" s="2"/>
@@ -2734,19 +2731,19 @@
       <c r="K5" s="11">
         <v>3</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="40" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2756,20 +2753,20 @@
         <v>4</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="35"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="33"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="12"/>
       <c r="H6" s="2"/>
       <c r="J6" s="45"/>
       <c r="K6" s="11">
         <v>4</v>
       </c>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
     </row>
     <row r="7" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
@@ -2793,22 +2790,22 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="44"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
@@ -2817,7 +2814,7 @@
       <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="49" t="s">
         <v>91</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -2826,13 +2823,13 @@
       <c r="E9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="49" t="s">
         <v>90</v>
       </c>
       <c r="J9" s="45" t="s">
@@ -2842,16 +2839,16 @@
         <v>1</v>
       </c>
       <c r="L9" s="12"/>
-      <c r="M9" s="54" t="s">
+      <c r="M9" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="N9" s="54" t="s">
+      <c r="N9" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="O9" s="52" t="s">
+      <c r="O9" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="P9" s="52" t="s">
+      <c r="P9" s="25" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2860,33 +2857,33 @@
       <c r="B10" s="11">
         <v>2</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="13" t="s">
         <v>88</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
       <c r="J10" s="45"/>
       <c r="K10" s="11">
         <v>2</v>
       </c>
-      <c r="L10" s="53" t="s">
+      <c r="L10" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="M10" s="53" t="s">
+      <c r="M10" s="26" t="s">
         <v>104</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="O10" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="P10" s="54" t="s">
+      <c r="P10" s="27" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2895,13 +2892,13 @@
       <c r="B11" s="11">
         <v>3</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="40" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="2"/>
@@ -2913,17 +2910,17 @@
       <c r="K11" s="11">
         <v>3</v>
       </c>
-      <c r="L11" s="53" t="s">
+      <c r="L11" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="M11" s="53" t="s">
+      <c r="M11" s="26" t="s">
         <v>105</v>
       </c>
       <c r="N11" s="12"/>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="33" t="s">
+      <c r="P11" s="49" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2932,9 +2929,9 @@
       <c r="B12" s="11">
         <v>4</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="2"/>
       <c r="G12" s="12"/>
       <c r="H12" s="2"/>
@@ -2942,15 +2939,15 @@
       <c r="K12" s="11">
         <v>4</v>
       </c>
-      <c r="L12" s="54" t="s">
+      <c r="L12" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="M12" s="54" t="s">
+      <c r="M12" s="27" t="s">
         <v>106</v>
       </c>
       <c r="N12" s="12"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
     </row>
     <row r="13" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
@@ -2974,22 +2971,22 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" s="9" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="44"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="48"/>
     </row>
     <row r="15" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
@@ -3001,11 +2998,11 @@
       <c r="C15" s="2"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="42" t="s">
         <v>89</v>
       </c>
       <c r="G15" s="12"/>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="42" t="s">
         <v>89</v>
       </c>
       <c r="J15" s="45" t="s">
@@ -3015,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="12"/>
-      <c r="M15" s="34" t="s">
+      <c r="M15" s="42" t="s">
         <v>97</v>
       </c>
       <c r="N15" s="12"/>
@@ -3029,18 +3026,18 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="35"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="35"/>
+      <c r="H16" s="43"/>
       <c r="J16" s="45"/>
       <c r="K16" s="11">
         <v>2</v>
       </c>
       <c r="L16" s="12"/>
-      <c r="M16" s="35"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
@@ -3050,14 +3047,14 @@
       <c r="B17" s="11">
         <v>3</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="33" t="s">
+      <c r="E17" s="43"/>
+      <c r="F17" s="49" t="s">
         <v>86</v>
       </c>
       <c r="G17" s="13" t="s">
@@ -3068,19 +3065,19 @@
       <c r="K17" s="11">
         <v>3</v>
       </c>
-      <c r="L17" s="46" t="s">
+      <c r="L17" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="M17" s="46" t="s">
+      <c r="M17" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="N17" s="33" t="s">
+      <c r="N17" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="O17" s="34" t="s">
+      <c r="O17" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="42" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3089,11 +3086,11 @@
       <c r="B18" s="11">
         <v>4</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34" t="s">
+      <c r="F18" s="49"/>
+      <c r="G18" s="42" t="s">
         <v>85</v>
       </c>
       <c r="H18" s="2"/>
@@ -3101,11 +3098,11 @@
       <c r="K18" s="11">
         <v>4</v>
       </c>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
     </row>
     <row r="19" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
@@ -3116,7 +3113,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="12"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="35"/>
+      <c r="G19" s="43"/>
       <c r="H19" s="2"/>
       <c r="J19" s="45"/>
       <c r="K19" s="11">
@@ -3129,22 +3126,22 @@
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" s="9" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="44"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="48"/>
     </row>
     <row r="21" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
@@ -3153,18 +3150,18 @@
       <c r="B21" s="11">
         <v>1</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="49" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="42" t="s">
         <v>85</v>
       </c>
       <c r="J21" s="45" t="s">
@@ -3173,15 +3170,15 @@
       <c r="K21" s="11">
         <v>1</v>
       </c>
-      <c r="L21" s="33" t="s">
+      <c r="L21" s="49" t="s">
         <v>101</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="33" t="s">
+      <c r="O21" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="P21" s="33" t="s">
+      <c r="P21" s="49" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3190,25 +3187,25 @@
       <c r="B22" s="11">
         <v>2</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="13" t="s">
         <v>89</v>
       </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="35"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="43"/>
       <c r="J22" s="45"/>
       <c r="K22" s="11">
         <v>2</v>
       </c>
-      <c r="L22" s="33"/>
+      <c r="L22" s="49"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="33" t="s">
+      <c r="N22" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
     </row>
     <row r="23" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
@@ -3218,33 +3215,33 @@
       <c r="C23" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="49" t="s">
         <v>87</v>
       </c>
       <c r="J23" s="45"/>
       <c r="K23" s="11">
         <v>3</v>
       </c>
-      <c r="L23" s="34" t="s">
+      <c r="L23" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="M23" s="34" t="s">
+      <c r="M23" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33" t="s">
+      <c r="N23" s="49"/>
+      <c r="O23" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="P23" s="33" t="s">
+      <c r="P23" s="49" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3254,21 +3251,21 @@
         <v>4</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
       <c r="J24" s="45"/>
       <c r="K24" s="11">
         <v>4</v>
       </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="33" t="s">
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
     </row>
     <row r="25" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
@@ -3287,27 +3284,27 @@
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="33"/>
+      <c r="N25" s="49"/>
       <c r="O25" s="2"/>
       <c r="P25" s="12"/>
     </row>
     <row r="26" spans="1:16" s="9" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="44"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="48"/>
     </row>
     <row r="27" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -3316,20 +3313,20 @@
       <c r="B27" s="11">
         <v>1</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="49" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="49" t="s">
         <v>91</v>
       </c>
       <c r="J27" s="45" t="s">
@@ -3338,19 +3335,19 @@
       <c r="K27" s="11">
         <v>1</v>
       </c>
-      <c r="L27" s="36" t="s">
+      <c r="L27" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="M27" s="36" t="s">
+      <c r="M27" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="N27" s="34" t="s">
+      <c r="N27" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="O27" s="33" t="s">
+      <c r="O27" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="P27" s="33" t="s">
+      <c r="P27" s="49" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3359,23 +3356,23 @@
       <c r="B28" s="11">
         <v>2</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="33"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="49"/>
       <c r="J28" s="45"/>
       <c r="K28" s="11">
         <v>2</v>
       </c>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
     </row>
     <row r="29" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
@@ -3385,32 +3382,32 @@
       <c r="C29" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="40" t="s">
         <v>57</v>
       </c>
       <c r="J29" s="45"/>
       <c r="K29" s="11">
         <v>3</v>
       </c>
-      <c r="L29" s="34" t="s">
+      <c r="L29" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="M29" s="34" t="s">
+      <c r="M29" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="N29" s="34" t="s">
+      <c r="N29" s="42" t="s">
         <v>115</v>
       </c>
       <c r="O29" s="12"/>
@@ -3422,18 +3419,18 @@
         <v>4</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
       <c r="J30" s="45"/>
       <c r="K30" s="11">
         <v>4</v>
       </c>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
     </row>
@@ -3459,65 +3456,49 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="28.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41" t="s">
+      <c r="D32" s="52"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="J15:J19"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="M15:M16"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="P27:P28"/>
     <mergeCell ref="O23:O24"/>
@@ -3534,36 +3515,52 @@
     <mergeCell ref="N22:N23"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="J15:J19"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.18" top="0.38" bottom="0.46" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
